--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_03_beg.xlsx
@@ -612,11 +612,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Doctor, I took a quick stroll around. Didn’t seem like there were any others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Looks like we’re gonna have to head back into the rainforest to look for her bunch after this.
+    <t xml:space="preserve">[name="Gavial"]  Doctor, I took a quick stroll around. Didn't seem like there were any others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Looks like we're gonna have to head back into the rainforest to look for her bunch after this.
 </t>
   </si>
   <si>
@@ -628,15 +628,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  This Peta’s pretty good. Makes me wanna rumble with him, actually.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Mm-hm! He’s one of my tribe’s warriors.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  But he’s definitely not as good as you, Gavial.
+    <t xml:space="preserve">[name="Gavial"]  This Peta's pretty good. Makes me wanna rumble with him, actually.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Mm-hm! He's one of my tribe's warriors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  But he's definitely not as good as you, Gavial.
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria Champion"]  So that’s all you Wilderness’s Wills amount to!
+    <t xml:space="preserve">[name="Archosauria Champion"]  So that's all you Wilderness's Wills amount to!
 </t>
   </si>
   <si>
@@ -680,15 +680,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Let’s go in together!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  We can’t. No number at once will be enough... Can we only give up...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria Champion"]  Who else wants to challenge me?! If you’re all done, then it’s just me versus the Great Chief!
+    <t xml:space="preserve">[name="Archosauria B"]  Let's go in together!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  We can't. No number at once will be enough... Can we only give up...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria Champion"]  Who else wants to challenge me?! If you're all done, then it's just me versus the Great Chief!
 </t>
   </si>
   <si>
@@ -696,19 +696,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria Champion"]  And you’re... Wilderness’s Will’s orphan, Gavial?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria Champion"]  I hear you’re a terror among the kids, but kids don’t join the ceremony. Run back home and drink your milk. You’ve got a few more years.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hmph! Let’s see who wins first!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria Champion"]  Hah! You really are an orphan. You don’t fear death?!
+    <t xml:space="preserve">[name="Archosauria Champion"]  And you're... Wilderness's Will's orphan, Gavial?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria Champion"]  I hear you're a terror among the kids, but kids don't join the ceremony. Run back home and drink your milk. You've got a few more years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hmph! Let's see who wins first!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria Champion"]  Hah! You really are an orphan. You don't fear death?!
 </t>
   </si>
   <si>
@@ -716,7 +716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria Champion"]  Heh! It’s your funeral, brat!
+    <t xml:space="preserve">[name="Archosauria Champion"]  Heh! It's your funeral, brat!
 </t>
   </si>
   <si>
@@ -724,11 +724,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Gavial’s... so strong...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hmph! I guess that’s all, then!
+    <t xml:space="preserve">[name="Tomimi"]  Gavial's... so strong...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hmph! I guess that's all, then!
 </t>
   </si>
   <si>
@@ -740,19 +740,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Didn’t she ever tell you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Didn’t I?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Eh. I guess I didn’t, but it’s not like it was important enough to come up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Dunno who my parents were, but that’s not all that rare in these parts.
+    <t xml:space="preserve">[name="Tomimi"]  Didn't she ever tell you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Didn't I?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Eh. I guess I didn't, but it's not like it was important enough to come up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Dunno who my parents were, but that's not all that rare in these parts.
 </t>
   </si>
   <si>
@@ -760,15 +760,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  It doesn’t even take a Catastrophe—honestly, nobody here knows what Catastrophes are—a single cold or a bout of bad weather can kill off folks who would’ve lived otherwise.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I’d guess my parents just went like that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Eugh. Let’s quit this talk. All you need to know is the tribe raised me.
+    <t xml:space="preserve">[name="Gavial"]  It doesn't even take a Catastrophe—honestly, nobody here knows what Catastrophes are—a single cold or a bout of bad weather can kill off folks who would've lived otherwise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I'd guess my parents just went like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Eugh. Let's quit this talk. All you need to know is the tribe raised me.
 </t>
   </si>
   <si>
@@ -776,27 +776,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You’ve come a long way.;......;Well, at least you’re healthier than anyone now.",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  You can quit it, Doctor. I don’t really need the pity treatment.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m not the only orphan ever. Plenty of families around here that link up and raise a bunch of ‘em together. It happens all the time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Doctor, don’t overthink it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I didn’t even know it was unusual until I left.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Actually, I guess you could say it’s what made me decide to do medicine.
+    <t xml:space="preserve">[Decision(options="You've come a long way.;......;Well, at least you're healthier than anyone now.",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  You can quit it, Doctor. I don't really need the pity treatment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I'm not the only orphan ever. Plenty of families around here that link up and raise a bunch of 'em together. It happens all the time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Doctor, don't overthink it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I didn't even know it was unusual until I left.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Actually, I guess you could say it's what made me decide to do medicine.
 </t>
   </si>
   <si>
@@ -804,7 +804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="So how’d that ceremony back then turn out?",values="1")]
+    <t xml:space="preserve">[Decision(options="So how'd that ceremony back then turn out?",values="1")]
 </t>
   </si>
   <si>
@@ -816,7 +816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Peta"]  Who’s that?!
+    <t xml:space="preserve">[name="Peta"]  Who's that?!
 </t>
   </si>
   <si>
@@ -836,7 +836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Tomimi, didn’t we tell your people to tie her up and take her back to the tribe?
+    <t xml:space="preserve">[name="Gavial"]  Tomimi, didn't we tell your people to tie her up and take her back to the tribe?
 </t>
   </si>
   <si>
@@ -844,7 +844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  She’s real strong. Kid must’ve just plowed past everyone...
+    <t xml:space="preserve">[name="Gavial"]  She's real strong. Kid must've just plowed past everyone...
 </t>
   </si>
   <si>
@@ -852,11 +852,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  Or else I’m gonna chase you to the end of the world, if I hafta!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Tch. Smartest girl ever. Looks like she still hasn’t even sobered up.
+    <t xml:space="preserve">[name="Ceobe"]  Or else I'm gonna chase you to the end of the world, if I hafta!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Tch. Smartest girl ever. Looks like she still hasn't even sobered up.
 </t>
   </si>
   <si>
@@ -872,15 +872,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  She’s insanely strong...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria C"]  Where’d that weirdo come from?! Which tribe is she?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  No idea! I don’t even understand what she’s saying!
+    <t xml:space="preserve">[name="Archosauria B"]  She's insanely strong...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria C"]  Where'd that weirdo come from?! Which tribe is she?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  No idea! I don't even understand what she's saying!
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, damn it. Now they think Kay’s the new challenger, don’t they?
+    <t xml:space="preserve">[name="Gavial"]  Oh, damn it. Now they think Kay's the new challenger, don't they?
 </t>
   </si>
   <si>
@@ -896,11 +896,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  No, wait. The dumb little kid is way tougher than you’d think. She can handle this. If we go in, we’re just gonna add to the body count.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  But something tells me this might get messy. Doctor, see if you can help Tomimi’s lackeys get this under control.
+    <t xml:space="preserve">[name="Gavial"]  No, wait. The dumb little kid is way tougher than you'd think. She can handle this. If we go in, we're just gonna add to the body count.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  But something tells me this might get messy. Doctor, see if you can help Tomimi's lackeys get this under control.
 </t>
   </si>
   <si>
